--- a/v2_white/BOM_22-24_upgrade.xlsx
+++ b/v2_white/BOM_22-24_upgrade.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="ffb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>Category:</t>
   </si>
@@ -186,6 +187,36 @@
   </si>
   <si>
     <t>Magnetic build surface 310x310</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>79+</t>
+  </si>
+  <si>
+    <t>50x50x15 Centrifugal Fan (24V)</t>
+  </si>
+  <si>
+    <t>Full 2.4 screw kit</t>
+  </si>
+  <si>
+    <t>M3 drop in t nuts</t>
+  </si>
+  <si>
+    <t>2.4 complete connector kit</t>
+  </si>
+  <si>
+    <t>M5 drop in t nuts</t>
+  </si>
+  <si>
+    <t>Threadlock</t>
+  </si>
+  <si>
+    <t>GT2 Open Belt LL-2GT-6 (6mm wide) - 1800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Bowden Coupler </t>
   </si>
 </sst>
 </file>
@@ -249,13 +280,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:D51" totalsRowShown="0">
-  <autoFilter ref="A3:D51"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:E52" totalsRowShown="0">
+  <autoFilter ref="A3:E52"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Category:"/>
     <tableColumn id="2" name="Part Description:"/>
     <tableColumn id="3" name="Qty:"/>
     <tableColumn id="4" name="Sourced"/>
+    <tableColumn id="5" name="Completed"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell32" displayName="Tabell32" ref="A3:C24" totalsRowShown="0">
+  <autoFilter ref="A3:C24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Category:"/>
+    <tableColumn id="2" name="Part Description:"/>
+    <tableColumn id="3" name="Qty:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -536,9 +580,10 @@
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -546,13 +591,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -565,8 +610,11 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -576,8 +624,11 @@
       <c r="C4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -587,8 +638,11 @@
       <c r="C5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -598,8 +652,11 @@
       <c r="C6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -609,8 +666,11 @@
       <c r="C7">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -620,8 +680,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -631,8 +694,11 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -642,8 +708,11 @@
       <c r="C10">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -654,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -665,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -676,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -687,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -698,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -935,15 +1004,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>40</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -951,10 +1020,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
         <v>40</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,10 +1031,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -973,10 +1042,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -984,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -995,10 +1064,10 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1006,7 +1075,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1017,26 +1086,23 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
     </row>
@@ -1045,9 +1111,23 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>2</v>
       </c>
     </row>
@@ -1061,4 +1141,241 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="A1:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/v2_white/BOM_22-24_upgrade.xlsx
+++ b/v2_white/BOM_22-24_upgrade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17430"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>Category:</t>
   </si>
@@ -217,6 +217,30 @@
   </si>
   <si>
     <t xml:space="preserve">4mm Bowden Coupler </t>
+  </si>
+  <si>
+    <t>NEMA17 Motor 17HS08-1004S / LDO from Lecktor</t>
+  </si>
+  <si>
+    <t>2(on order)</t>
+  </si>
+  <si>
+    <t>1(on order)</t>
+  </si>
+  <si>
+    <t>3(on order)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1+1(on order)</t>
+  </si>
+  <si>
+    <t>40+8(on order)</t>
+  </si>
+  <si>
+    <t>MicroSD extender</t>
   </si>
 </sst>
 </file>
@@ -280,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:E52" totalsRowShown="0">
-  <autoFilter ref="A3:E52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:E53" totalsRowShown="0">
+  <autoFilter ref="A3:E53"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Category:"/>
     <tableColumn id="2" name="Part Description:"/>
@@ -568,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,7 +603,7 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -778,7 +802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -789,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -800,7 +824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -810,11 +834,14 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -825,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -836,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -847,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -858,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -869,18 +896,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -891,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -901,8 +928,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -913,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -924,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -946,18 +976,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,9 +995,12 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
@@ -976,10 +1009,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -987,10 +1023,13 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -998,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1009,21 +1048,24 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
-        <v>40</v>
+      <c r="C41">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,10 +1073,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43">
         <v>40</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1042,10 +1084,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1053,10 +1095,10 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1064,7 +1106,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1075,10 +1117,10 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,48 +1128,65 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
       <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>2</v>
       </c>
     </row>
@@ -1147,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="A1:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/v2_white/BOM_22-24_upgrade.xlsx
+++ b/v2_white/BOM_22-24_upgrade.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Category:</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>MicroSD extender</t>
+  </si>
+  <si>
+    <t>Mini 12864 Display v2.1 (neopixel)</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -912,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>1</v>

--- a/v2_white/BOM_22-24_upgrade.xlsx
+++ b/v2_white/BOM_22-24_upgrade.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
   <si>
     <t>Category:</t>
   </si>
@@ -123,9 +123,6 @@
     <t>60x60x20 Fan (24V)</t>
   </si>
   <si>
-    <t>40x40x20 Centrifugal Fan (24V)</t>
-  </si>
-  <si>
     <t>40x40x10 Axial Fan (24V)</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>IGUS E2-10-10-018-0 Chain (355mm [1.16ft])</t>
   </si>
   <si>
-    <t>24AWG Silicone Cable (10ft total)</t>
-  </si>
-  <si>
     <t>Frame</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>DIN 3 Rails (35mm W) - 420mm</t>
   </si>
   <si>
-    <t>Sourced</t>
-  </si>
-  <si>
     <t>Bill of Materials 2.2 to 2.4 upgrade</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>79+</t>
-  </si>
-  <si>
     <t>50x50x15 Centrifugal Fan (24V)</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>1(on order)</t>
   </si>
   <si>
-    <t>3(on order)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -244,6 +229,36 @@
   </si>
   <si>
     <t>Mini 12864 Display v2.1 (neopixel)</t>
+  </si>
+  <si>
+    <t>ordered from ffb</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>ordered from conrad.com</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>20AWG Heluflon cable</t>
+  </si>
+  <si>
+    <t>24AWG Heluflon cable</t>
+  </si>
+  <si>
+    <t>M5 T-nut or HNTAJ5-5</t>
+  </si>
+  <si>
+    <t>M3 T-nut or HNTAJ5-3</t>
+  </si>
+  <si>
+    <t>ordered from amazon.se (kit)</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -284,8 +299,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,13 +326,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:E53" totalsRowShown="0">
-  <autoFilter ref="A3:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="A3:E56" totalsRowShown="0">
+  <autoFilter ref="A3:E56"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Category:"/>
     <tableColumn id="2" name="Part Description:"/>
     <tableColumn id="3" name="Qty:"/>
-    <tableColumn id="4" name="Sourced"/>
+    <tableColumn id="4" name="Comment"/>
     <tableColumn id="5" name="Completed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -595,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,23 +625,23 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -635,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,8 +670,11 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>8</v>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,8 +687,11 @@
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>7</v>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -679,8 +704,11 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,8 +721,11 @@
       <c r="C7">
         <v>42</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -707,8 +738,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,9 +755,7 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -735,8 +767,11 @@
       <c r="C10">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
-        <v>55</v>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,6 +784,12 @@
       <c r="C11">
         <v>6</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -760,6 +801,12 @@
       <c r="C12">
         <v>26</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -771,6 +818,12 @@
       <c r="C13">
         <v>17</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -782,6 +835,12 @@
       <c r="C14">
         <v>8</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -793,6 +852,12 @@
       <c r="C15">
         <v>6</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -804,6 +869,12 @@
       <c r="C16">
         <v>90</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -815,6 +886,12 @@
       <c r="C17">
         <v>47</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -826,44 +903,65 @@
       <c r="C18">
         <v>10</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
+        <v>112</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,10 +969,16 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -882,10 +986,16 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -893,32 +1003,50 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -926,13 +1054,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>66</v>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,10 +1071,16 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,10 +1088,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,234 +1105,306 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
+      <c r="C40">
         <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>61</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="C43">
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53">
+      <c r="C56">
         <v>2</v>
       </c>
     </row>
@@ -1221,16 +1436,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1248,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1259,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -1270,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1281,7 +1496,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1391,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1402,7 +1617,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1410,10 +1625,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1421,10 +1636,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>3</v>
